--- a/contratos/contratos-9-2020.xlsx
+++ b/contratos/contratos-9-2020.xlsx
@@ -1012,13 +1012,13 @@
     <t>IMAGEN SISTEMAS DE COPIADO S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
   </si>
   <si>
-    <t>MONTICO, RICARDO</t>
+    <t>MONTICO. RICARDO</t>
   </si>
   <si>
     <t>CONSORCIO EDIFICIO DEL SISTEMA DE PREVISION SOCIAL PARA MEDICOS Y BIOQUIMICOS DE E. RIOS.</t>
@@ -1069,7 +1069,7 @@
     <t>CENTINELA S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>FERREYRA EDUARDO FEDERICO</t>
@@ -1081,7 +1081,7 @@
     <t>BONNIN CRISTIAN FEDERICO</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>FLEMING Y MARTOLIO S.A.</t>
@@ -1213,7 +1213,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1240,13 +1240,13 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>OLIVERA, FLORENCIO</t>
+    <t>OLIVERA. FLORENCIO</t>
   </si>
   <si>
     <t>SERVICIO MECANICO RICHARD S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1411,7 +1411,7 @@
     <t>ORGANIZACION COORDINADORA ARGENTINA S.R.L.</t>
   </si>
   <si>
-    <t>ALVAREZ, RENZO JOEL</t>
+    <t>ALVAREZ. RENZO JOEL</t>
   </si>
   <si>
     <t>SARTORI ROBERTO DANIE</t>
@@ -1594,7 +1594,7 @@
     <t>ASOCIACION BOMBEROS C. DEL URUGUAY</t>
   </si>
   <si>
-    <t>MORERA, SALVADOR</t>
+    <t>MORERA. SALVADOR</t>
   </si>
   <si>
     <t>GEO SONIDO</t>
@@ -1666,7 +1666,7 @@
     <t>MAGRI REPUESTOS</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t>MESOPOTAMIA SEGURIDAD</t>
@@ -1855,751 +1855,751 @@
     <t>119</t>
   </si>
   <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>59.199,36</t>
-  </si>
-  <si>
-    <t>440.000,00</t>
-  </si>
-  <si>
-    <t>5.599,96</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>17.780,00</t>
-  </si>
-  <si>
-    <t>57.620,00</t>
-  </si>
-  <si>
-    <t>2.688,36</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>1.121.530,43</t>
-  </si>
-  <si>
-    <t>62.280,00</t>
-  </si>
-  <si>
-    <t>131.190,00</t>
-  </si>
-  <si>
-    <t>58.779,86</t>
-  </si>
-  <si>
-    <t>1.544.344,46</t>
-  </si>
-  <si>
-    <t>8.934,00</t>
-  </si>
-  <si>
-    <t>169.640,00</t>
-  </si>
-  <si>
-    <t>16.341,70</t>
-  </si>
-  <si>
-    <t>43.509,18</t>
-  </si>
-  <si>
-    <t>201.413,80</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>288,00</t>
-  </si>
-  <si>
-    <t>472,00</t>
-  </si>
-  <si>
-    <t>5.775,00</t>
-  </si>
-  <si>
-    <t>19,80</t>
-  </si>
-  <si>
-    <t>848,00</t>
-  </si>
-  <si>
-    <t>116,85</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>31,40</t>
-  </si>
-  <si>
-    <t>3.018.533,03</t>
-  </si>
-  <si>
-    <t>113.231,64</t>
-  </si>
-  <si>
-    <t>24.349,00</t>
-  </si>
-  <si>
-    <t>311.968,25</t>
-  </si>
-  <si>
-    <t>6.952,00</t>
-  </si>
-  <si>
-    <t>6.520,00</t>
-  </si>
-  <si>
-    <t>6.565,70</t>
-  </si>
-  <si>
-    <t>19.950,00</t>
-  </si>
-  <si>
-    <t>13.040,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>51.051,09</t>
-  </si>
-  <si>
-    <t>65.005,57</t>
-  </si>
-  <si>
-    <t>1.681,58</t>
-  </si>
-  <si>
-    <t>19.250,00</t>
-  </si>
-  <si>
-    <t>15.230,38</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>32.758,53</t>
-  </si>
-  <si>
-    <t>8.926,92</t>
-  </si>
-  <si>
-    <t>60.457,05</t>
-  </si>
-  <si>
-    <t>7.923,30</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>2.032,01</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>19.949,00</t>
-  </si>
-  <si>
-    <t>1.098,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>478.488,60</t>
-  </si>
-  <si>
-    <t>19.980,00</t>
-  </si>
-  <si>
-    <t>1.079.458,25</t>
-  </si>
-  <si>
-    <t>34.972,55</t>
-  </si>
-  <si>
-    <t>7.339,28</t>
-  </si>
-  <si>
-    <t>25.175,69</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>33.863,80</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>47.577,36</t>
-  </si>
-  <si>
-    <t>6.930,00</t>
-  </si>
-  <si>
-    <t>16.700,00</t>
-  </si>
-  <si>
-    <t>87.321,47</t>
-  </si>
-  <si>
-    <t>19.687,50</t>
-  </si>
-  <si>
-    <t>13.020,00</t>
-  </si>
-  <si>
-    <t>1.771,90</t>
-  </si>
-  <si>
-    <t>4.380,00</t>
-  </si>
-  <si>
-    <t>4.942,00</t>
-  </si>
-  <si>
-    <t>32.476,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>20.580,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>195.000,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>17.075,00</t>
-  </si>
-  <si>
-    <t>124.080,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>57.960,00</t>
-  </si>
-  <si>
-    <t>38.432,16</t>
-  </si>
-  <si>
-    <t>3.990,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>9.590,00</t>
-  </si>
-  <si>
-    <t>36.072,65</t>
-  </si>
-  <si>
-    <t>9.980,00</t>
-  </si>
-  <si>
-    <t>9.150,00</t>
-  </si>
-  <si>
-    <t>56.099,98</t>
-  </si>
-  <si>
-    <t>5.219,50</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>12.374,86</t>
-  </si>
-  <si>
-    <t>6.910,00</t>
-  </si>
-  <si>
-    <t>1.239,75</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>29.380,00</t>
-  </si>
-  <si>
-    <t>102.835,56</t>
-  </si>
-  <si>
-    <t>36.958,45</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>4.992,98</t>
-  </si>
-  <si>
-    <t>7.322,47</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>6.335,00</t>
-  </si>
-  <si>
-    <t>12.524,00</t>
-  </si>
-  <si>
-    <t>46.980,00</t>
-  </si>
-  <si>
-    <t>10.160,00</t>
-  </si>
-  <si>
-    <t>6.716,00</t>
-  </si>
-  <si>
-    <t>4.410,96</t>
-  </si>
-  <si>
-    <t>51.886,60</t>
-  </si>
-  <si>
-    <t>20.072,50</t>
-  </si>
-  <si>
-    <t>28.369,00</t>
-  </si>
-  <si>
-    <t>10.542,05</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>47.916,50</t>
-  </si>
-  <si>
-    <t>35.920,00</t>
-  </si>
-  <si>
-    <t>23.030,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>66.550,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>391,20</t>
-  </si>
-  <si>
-    <t>5.185,00</t>
-  </si>
-  <si>
-    <t>17.800,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>91.634,00</t>
-  </si>
-  <si>
-    <t>4.620,00</t>
-  </si>
-  <si>
-    <t>39.460,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>84.938,66</t>
-  </si>
-  <si>
-    <t>10.866,00</t>
-  </si>
-  <si>
-    <t>2.629,74</t>
-  </si>
-  <si>
-    <t>171.676,83</t>
-  </si>
-  <si>
-    <t>5.274,32</t>
-  </si>
-  <si>
-    <t>43.407,00</t>
-  </si>
-  <si>
-    <t>26.369,80</t>
-  </si>
-  <si>
-    <t>43.410,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>20.870,00</t>
-  </si>
-  <si>
-    <t>75.166,50</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>51.600,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>23.150,00</t>
-  </si>
-  <si>
-    <t>69.700,00</t>
-  </si>
-  <si>
-    <t>19.120,00</t>
-  </si>
-  <si>
-    <t>200.108,00</t>
-  </si>
-  <si>
-    <t>9.870,00</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>18.705,00</t>
-  </si>
-  <si>
-    <t>95.800,00</t>
-  </si>
-  <si>
-    <t>1.990,00</t>
-  </si>
-  <si>
-    <t>71.140,00</t>
-  </si>
-  <si>
-    <t>66.740,00</t>
-  </si>
-  <si>
-    <t>8.971,00</t>
-  </si>
-  <si>
-    <t>1.040,70</t>
-  </si>
-  <si>
-    <t>6.150,00</t>
-  </si>
-  <si>
-    <t>38.630,00</t>
-  </si>
-  <si>
-    <t>112.900,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>254.723,00</t>
-  </si>
-  <si>
-    <t>30.160,00</t>
-  </si>
-  <si>
-    <t>7.980,00</t>
-  </si>
-  <si>
-    <t>14.450,00</t>
-  </si>
-  <si>
-    <t>35.226,21</t>
-  </si>
-  <si>
-    <t>13.346,97</t>
-  </si>
-  <si>
-    <t>36.600,00</t>
-  </si>
-  <si>
-    <t>56.400,00</t>
-  </si>
-  <si>
-    <t>18.005,90</t>
-  </si>
-  <si>
-    <t>49.290,00</t>
-  </si>
-  <si>
-    <t>4.980,00</t>
-  </si>
-  <si>
-    <t>4.794,21</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>862,56</t>
-  </si>
-  <si>
-    <t>8.259,37</t>
-  </si>
-  <si>
-    <t>30.487,02</t>
-  </si>
-  <si>
-    <t>19.200,00</t>
-  </si>
-  <si>
-    <t>19.540,00</t>
-  </si>
-  <si>
-    <t>17.600,00</t>
-  </si>
-  <si>
-    <t>13.202,60</t>
-  </si>
-  <si>
-    <t>29.550,00</t>
-  </si>
-  <si>
-    <t>1.537,78</t>
-  </si>
-  <si>
-    <t>317.009,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>89.684,50</t>
-  </si>
-  <si>
-    <t>9.209.996,57</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>18.600,00</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>12.870.372,93</t>
-  </si>
-  <si>
-    <t>2.436.350,88</t>
-  </si>
-  <si>
-    <t>332.000,00</t>
-  </si>
-  <si>
-    <t>377.520,00</t>
-  </si>
-  <si>
-    <t>315.720,00</t>
-  </si>
-  <si>
-    <t>309.000,00</t>
-  </si>
-  <si>
-    <t>588.000,00</t>
-  </si>
-  <si>
-    <t>807.350,00</t>
-  </si>
-  <si>
-    <t>1.046.000,00</t>
-  </si>
-  <si>
-    <t>350.720,00</t>
-  </si>
-  <si>
-    <t>618.000,00</t>
-  </si>
-  <si>
-    <t>644.100,00</t>
-  </si>
-  <si>
-    <t>610.400,00</t>
-  </si>
-  <si>
-    <t>910.400,00</t>
-  </si>
-  <si>
-    <t>908.980,00</t>
-  </si>
-  <si>
-    <t>339.143,00</t>
-  </si>
-  <si>
-    <t>397.225,00</t>
-  </si>
-  <si>
-    <t>480.816,63</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>18.501.572,00</t>
-  </si>
-  <si>
-    <t>16.886.584,01</t>
-  </si>
-  <si>
-    <t>484.000,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>3.117.166,68</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>1.734,53</t>
-  </si>
-  <si>
-    <t>23.700,00</t>
-  </si>
-  <si>
-    <t>393.220,00</t>
-  </si>
-  <si>
-    <t>72.502,00</t>
-  </si>
-  <si>
-    <t>10.650,00</t>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>59199.36</t>
+  </si>
+  <si>
+    <t>440000.00</t>
+  </si>
+  <si>
+    <t>5599.96</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>17780.00</t>
+  </si>
+  <si>
+    <t>57620.00</t>
+  </si>
+  <si>
+    <t>2688.36</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>1121530.43</t>
+  </si>
+  <si>
+    <t>62280.00</t>
+  </si>
+  <si>
+    <t>131190.00</t>
+  </si>
+  <si>
+    <t>58779.86</t>
+  </si>
+  <si>
+    <t>1544344.46</t>
+  </si>
+  <si>
+    <t>8934.00</t>
+  </si>
+  <si>
+    <t>169640.00</t>
+  </si>
+  <si>
+    <t>16341.70</t>
+  </si>
+  <si>
+    <t>43509.18</t>
+  </si>
+  <si>
+    <t>201413.80</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>472.00</t>
+  </si>
+  <si>
+    <t>5775.00</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>848.00</t>
+  </si>
+  <si>
+    <t>116.85</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>31.40</t>
+  </si>
+  <si>
+    <t>3018533.03</t>
+  </si>
+  <si>
+    <t>113231.64</t>
+  </si>
+  <si>
+    <t>24349.00</t>
+  </si>
+  <si>
+    <t>311968.25</t>
+  </si>
+  <si>
+    <t>6952.00</t>
+  </si>
+  <si>
+    <t>6520.00</t>
+  </si>
+  <si>
+    <t>6565.70</t>
+  </si>
+  <si>
+    <t>19950.00</t>
+  </si>
+  <si>
+    <t>13040.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>51051.09</t>
+  </si>
+  <si>
+    <t>65005.57</t>
+  </si>
+  <si>
+    <t>1681.58</t>
+  </si>
+  <si>
+    <t>19250.00</t>
+  </si>
+  <si>
+    <t>15230.38</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>32758.53</t>
+  </si>
+  <si>
+    <t>8926.92</t>
+  </si>
+  <si>
+    <t>60457.05</t>
+  </si>
+  <si>
+    <t>7923.30</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>2032.01</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>19949.00</t>
+  </si>
+  <si>
+    <t>1098.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>478488.60</t>
+  </si>
+  <si>
+    <t>19980.00</t>
+  </si>
+  <si>
+    <t>1079458.25</t>
+  </si>
+  <si>
+    <t>34972.55</t>
+  </si>
+  <si>
+    <t>7339.28</t>
+  </si>
+  <si>
+    <t>25175.69</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>33863.80</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>47577.36</t>
+  </si>
+  <si>
+    <t>6930.00</t>
+  </si>
+  <si>
+    <t>16700.00</t>
+  </si>
+  <si>
+    <t>87321.47</t>
+  </si>
+  <si>
+    <t>19687.50</t>
+  </si>
+  <si>
+    <t>13020.00</t>
+  </si>
+  <si>
+    <t>1771.90</t>
+  </si>
+  <si>
+    <t>4380.00</t>
+  </si>
+  <si>
+    <t>4942.00</t>
+  </si>
+  <si>
+    <t>32476.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>20580.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>195000.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>17075.00</t>
+  </si>
+  <si>
+    <t>124080.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>57960.00</t>
+  </si>
+  <si>
+    <t>38432.16</t>
+  </si>
+  <si>
+    <t>3990.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>9590.00</t>
+  </si>
+  <si>
+    <t>36072.65</t>
+  </si>
+  <si>
+    <t>9980.00</t>
+  </si>
+  <si>
+    <t>9150.00</t>
+  </si>
+  <si>
+    <t>56099.98</t>
+  </si>
+  <si>
+    <t>5219.50</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>12374.86</t>
+  </si>
+  <si>
+    <t>6910.00</t>
+  </si>
+  <si>
+    <t>1239.75</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>29380.00</t>
+  </si>
+  <si>
+    <t>102835.56</t>
+  </si>
+  <si>
+    <t>36958.45</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>4992.98</t>
+  </si>
+  <si>
+    <t>7322.47</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>6335.00</t>
+  </si>
+  <si>
+    <t>12524.00</t>
+  </si>
+  <si>
+    <t>46980.00</t>
+  </si>
+  <si>
+    <t>10160.00</t>
+  </si>
+  <si>
+    <t>6716.00</t>
+  </si>
+  <si>
+    <t>4410.96</t>
+  </si>
+  <si>
+    <t>51886.60</t>
+  </si>
+  <si>
+    <t>20072.50</t>
+  </si>
+  <si>
+    <t>28369.00</t>
+  </si>
+  <si>
+    <t>10542.05</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>47916.50</t>
+  </si>
+  <si>
+    <t>35920.00</t>
+  </si>
+  <si>
+    <t>23030.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>66550.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>391.20</t>
+  </si>
+  <si>
+    <t>5185.00</t>
+  </si>
+  <si>
+    <t>17800.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>91634.00</t>
+  </si>
+  <si>
+    <t>4620.00</t>
+  </si>
+  <si>
+    <t>39460.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>84938.66</t>
+  </si>
+  <si>
+    <t>10866.00</t>
+  </si>
+  <si>
+    <t>2629.74</t>
+  </si>
+  <si>
+    <t>171676.83</t>
+  </si>
+  <si>
+    <t>5274.32</t>
+  </si>
+  <si>
+    <t>43407.00</t>
+  </si>
+  <si>
+    <t>26369.80</t>
+  </si>
+  <si>
+    <t>43410.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>20870.00</t>
+  </si>
+  <si>
+    <t>75166.50</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>51600.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>23150.00</t>
+  </si>
+  <si>
+    <t>69700.00</t>
+  </si>
+  <si>
+    <t>19120.00</t>
+  </si>
+  <si>
+    <t>200108.00</t>
+  </si>
+  <si>
+    <t>9870.00</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>18705.00</t>
+  </si>
+  <si>
+    <t>95800.00</t>
+  </si>
+  <si>
+    <t>1990.00</t>
+  </si>
+  <si>
+    <t>71140.00</t>
+  </si>
+  <si>
+    <t>66740.00</t>
+  </si>
+  <si>
+    <t>8971.00</t>
+  </si>
+  <si>
+    <t>1040.70</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>38630.00</t>
+  </si>
+  <si>
+    <t>112900.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>254723.00</t>
+  </si>
+  <si>
+    <t>30160.00</t>
+  </si>
+  <si>
+    <t>7980.00</t>
+  </si>
+  <si>
+    <t>14450.00</t>
+  </si>
+  <si>
+    <t>35226.21</t>
+  </si>
+  <si>
+    <t>13346.97</t>
+  </si>
+  <si>
+    <t>36600.00</t>
+  </si>
+  <si>
+    <t>56400.00</t>
+  </si>
+  <si>
+    <t>18005.90</t>
+  </si>
+  <si>
+    <t>49290.00</t>
+  </si>
+  <si>
+    <t>4980.00</t>
+  </si>
+  <si>
+    <t>4794.21</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>862.56</t>
+  </si>
+  <si>
+    <t>8259.37</t>
+  </si>
+  <si>
+    <t>30487.02</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>19540.00</t>
+  </si>
+  <si>
+    <t>17600.00</t>
+  </si>
+  <si>
+    <t>13202.60</t>
+  </si>
+  <si>
+    <t>29550.00</t>
+  </si>
+  <si>
+    <t>1537.78</t>
+  </si>
+  <si>
+    <t>317009.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>89684.50</t>
+  </si>
+  <si>
+    <t>9209996.57</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>18600.00</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>12870372.93</t>
+  </si>
+  <si>
+    <t>2436350.88</t>
+  </si>
+  <si>
+    <t>332000.00</t>
+  </si>
+  <si>
+    <t>377520.00</t>
+  </si>
+  <si>
+    <t>315720.00</t>
+  </si>
+  <si>
+    <t>309000.00</t>
+  </si>
+  <si>
+    <t>588000.00</t>
+  </si>
+  <si>
+    <t>807350.00</t>
+  </si>
+  <si>
+    <t>1046000.00</t>
+  </si>
+  <si>
+    <t>350720.00</t>
+  </si>
+  <si>
+    <t>618000.00</t>
+  </si>
+  <si>
+    <t>644100.00</t>
+  </si>
+  <si>
+    <t>610400.00</t>
+  </si>
+  <si>
+    <t>910400.00</t>
+  </si>
+  <si>
+    <t>908980.00</t>
+  </si>
+  <si>
+    <t>339143.00</t>
+  </si>
+  <si>
+    <t>397225.00</t>
+  </si>
+  <si>
+    <t>480816.63</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>18501572.00</t>
+  </si>
+  <si>
+    <t>16886584.01</t>
+  </si>
+  <si>
+    <t>484000.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>3117166.68</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>1734.53</t>
+  </si>
+  <si>
+    <t>23700.00</t>
+  </si>
+  <si>
+    <t>393220.00</t>
+  </si>
+  <si>
+    <t>72502.00</t>
+  </si>
+  <si>
+    <t>10650.00</t>
   </si>
 </sst>
 </file>
